--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>补充自己的代码实现自己的功能</t>
+  </si>
+  <si>
+    <t>7:00-9:00</t>
+  </si>
+  <si>
+    <t>理解各个块的逻辑和关系</t>
+  </si>
+  <si>
+    <t>知道了各个快的功能</t>
+  </si>
+  <si>
+    <t>增加一些自己的方法</t>
   </si>
   <si>
     <t>周次</t>
@@ -80,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -101,6 +113,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -108,15 +174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,108 +199,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,9 +455,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +488,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -485,15 +514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,28 +533,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1092,6 +1104,23 @@
       </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1119,13 +1148,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>增加一些自己的方法</t>
+  </si>
+  <si>
+    <t>实现controller</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>深入理解</t>
   </si>
   <si>
     <t>周次</t>
@@ -92,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,7 +124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +145,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -144,105 +215,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -259,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,30 +487,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -518,17 +516,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +532,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,28 +580,28 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,100 +610,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1121,6 +1130,23 @@
       </c>
       <c r="E5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1148,13 +1174,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>深入理解</t>
+  </si>
+  <si>
+    <t>浏览器访问</t>
+  </si>
+  <si>
+    <t>进一步完善功能</t>
   </si>
   <si>
     <t>周次</t>
@@ -101,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +123,112 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,112 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -268,6 +274,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,138 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,30 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,17 +483,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,16 +528,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,151 +550,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1147,6 +1153,23 @@
       </c>
       <c r="E6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1174,13 +1197,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>深入理解</t>
-  </si>
-  <si>
-    <t>浏览器访问</t>
-  </si>
-  <si>
-    <t>进一步完善功能</t>
   </si>
   <si>
     <t>周次</t>
@@ -107,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +122,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -141,6 +158,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,27 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,9 +223,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,29 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +268,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,6 +346,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,24 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,36 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +459,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,26 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,16 +537,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,31 +559,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1153,23 +1147,6 @@
       </c>
       <c r="E6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>43266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1197,13 +1174,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -94,6 +94,36 @@
   </si>
   <si>
     <t>进一步完善功能</t>
+  </si>
+  <si>
+    <t>1:00-4:00</t>
+  </si>
+  <si>
+    <t>项目立项</t>
+  </si>
+  <si>
+    <t>有待继续讨论</t>
+  </si>
+  <si>
+    <t>完善立项申请</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>讨论未完成</t>
+  </si>
+  <si>
+    <t>有待继续深入讨论</t>
+  </si>
+  <si>
+    <t>jenkins使用</t>
+  </si>
+  <si>
+    <t>使用不熟练</t>
+  </si>
+  <si>
+    <t>多练习</t>
   </si>
   <si>
     <t>周次</t>
@@ -107,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,12 +152,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -144,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -151,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,27 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,9 +267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,32 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,19 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,163 +436,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,16 +498,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -507,22 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +569,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1170,6 +1200,57 @@
       </c>
       <c r="E7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1197,13 +1278,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>多练习</t>
+  </si>
+  <si>
+    <t>jenkins使用复习</t>
+  </si>
+  <si>
+    <t>熟悉了一遍</t>
+  </si>
+  <si>
+    <t>安装jira</t>
+  </si>
+  <si>
+    <t>成功安装</t>
+  </si>
+  <si>
+    <t>创建用户</t>
+  </si>
+  <si>
+    <t>创建jira用户并破解</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>熟悉jira</t>
   </si>
   <si>
     <t>周次</t>
@@ -138,9 +162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,6 +176,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -167,7 +206,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,113 +313,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -304,24 +328,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,151 +436,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,26 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +567,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,25 +619,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1204,7 +1228,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>43267</v>
+        <v>43271</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1221,7 +1245,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>43268</v>
+        <v>43272</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1238,7 +1262,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>43269</v>
+        <v>43273</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1251,6 +1275,57 @@
       </c>
       <c r="E10" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1278,13 +1353,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>日期</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>熟悉jira</t>
+  </si>
+  <si>
+    <t>更改jira端口</t>
+  </si>
+  <si>
+    <t>创建问题</t>
+  </si>
+  <si>
+    <t>更改jenkins端口</t>
+  </si>
+  <si>
+    <t>添加功能</t>
   </si>
   <si>
     <t>周次</t>
@@ -162,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,7 +188,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,125 +287,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,51 +531,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,17 +552,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,16 +607,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1326,6 +1338,40 @@
       </c>
       <c r="E13" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1353,13 +1399,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040116_liwenbo.xlsx
+++ b/hero/doc/log/log_201608040116_liwenbo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>日期</t>
   </si>
@@ -160,6 +160,33 @@
   </si>
   <si>
     <t>添加功能</t>
+  </si>
+  <si>
+    <t>写配置计划</t>
+  </si>
+  <si>
+    <t>帮助小组成员配置</t>
+  </si>
+  <si>
+    <t>添加注解</t>
+  </si>
+  <si>
+    <t>完善个人模块</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>继续完善</t>
+  </si>
+  <si>
+    <t>帮助小组成员创建jira用户</t>
+  </si>
+  <si>
+    <t>未成功</t>
+  </si>
+  <si>
+    <t>继续创建问题</t>
   </si>
   <si>
     <t>周次</t>
@@ -173,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,9 +215,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,60 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,28 +345,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -340,12 +367,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,13 +517,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,151 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,26 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -584,6 +611,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,21 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -637,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1372,6 +1399,91 @@
       </c>
       <c r="E15" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1399,13 +1511,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
